--- a/documentation/dataDictionary.xlsx
+++ b/documentation/dataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenzing\Documents\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C4F0C-A3EE-41BB-8BB0-D3055705056B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F783235-EE77-4E2B-939B-0C93511CB476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{F749BFF4-5B5A-4266-98AA-CD0749609A7E}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
-  <si>
-    <t>Metadata for Users</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Column Type</t>
   </si>
@@ -42,12 +39,6 @@
     <t>Null</t>
   </si>
   <si>
-    <t>PK/FK</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -127,14 +118,55 @@
   </si>
   <si>
     <t>Bookingbooking_id</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Not Null</t>
+  </si>
+  <si>
+    <t>Primary key</t>
+  </si>
+  <si>
+    <t>Foreign key</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>bill_id</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,248 +511,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC363308-1613-4591-A8F3-8A02AFCA5476}">
-  <dimension ref="D2:I42"/>
+  <dimension ref="D2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="G40" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+      <c r="H40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E43" t="s">
         <v>31</v>
       </c>
-      <c r="H40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>33</v>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/dataDictionary.xlsx
+++ b/documentation/dataDictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenzing\Documents\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenzing\Documents\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F783235-EE77-4E2B-939B-0C93511CB476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED7B0F7-C5D2-40B7-B223-1CEB3413BE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{F749BFF4-5B5A-4266-98AA-CD0749609A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Column Type</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Double</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC363308-1613-4591-A8F3-8A02AFCA5476}">
-  <dimension ref="D2:H44"/>
+  <dimension ref="D2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,9 +575,6 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -586,9 +586,6 @@
       <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -600,9 +597,6 @@
       <c r="F7">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -614,9 +608,6 @@
       <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -628,9 +619,6 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -748,9 +736,6 @@
       <c r="F23">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -762,22 +747,16 @@
       <c r="F24">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
@@ -790,9 +769,6 @@
       <c r="F26">
         <v>50</v>
       </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -801,9 +777,6 @@
       <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -812,9 +785,6 @@
       <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -826,9 +796,6 @@
       <c r="F29">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
@@ -879,9 +846,6 @@
       <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
@@ -943,13 +907,11 @@
       <c r="E43" t="s">
         <v>31</v>
       </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
       <c r="H43" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
